--- a/trend_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/trend_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>site name</t>
   </si>
@@ -118,16 +118,25 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,31 +612,31 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.7173942629582299</v>
+        <v>0.959281212248467</v>
       </c>
       <c r="G2">
-        <v>0.310344827586207</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="H2">
-        <v>0.689655172413793</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.849418604651163</v>
       </c>
       <c r="L2">
-        <v>-1.79840284260614</v>
+        <v>-2.03443462123105</v>
       </c>
       <c r="M2">
-        <v>0.485556643543722</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-24.6208291203236</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
@@ -642,19 +651,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -671,40 +680,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.800973772452451</v>
+        <v>0.747911584449549</v>
       </c>
       <c r="G3">
-        <v>0.0689655172413793</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H3">
-        <v>0.793103448275862</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>53.6</v>
       </c>
       <c r="K3">
-        <v>-4.89583861260691</v>
+        <v>-4.45426829268293</v>
       </c>
       <c r="L3">
-        <v>-27.3676084565754</v>
+        <v>-29.7624585761266</v>
       </c>
       <c r="M3">
-        <v>13.2986748981382</v>
+        <v>9.824606458799639</v>
       </c>
       <c r="N3">
-        <v>-8.4411010562188</v>
+        <v>-8.310202038587549</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>1783978.1189</v>
@@ -713,19 +722,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -745,7 +754,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>0.807345012504547</v>
+        <v>0.272828054203259</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -757,25 +766,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.28055836635582</v>
+        <v>0.329167231442677</v>
       </c>
       <c r="K4">
-        <v>-0.0767434451217707</v>
+        <v>0.0366246655364163</v>
       </c>
       <c r="L4">
-        <v>-0.164277781231729</v>
+        <v>-0.0516707413197829</v>
       </c>
       <c r="M4">
-        <v>0.0481832515647029</v>
+        <v>0.103999827987838</v>
       </c>
       <c r="N4">
-        <v>-27.3538252017194</v>
+        <v>11.1264615787839</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>1783978.1189</v>
@@ -784,19 +793,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,40 +822,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.769341515723127</v>
+        <v>0.8610413103157</v>
       </c>
       <c r="G5">
-        <v>0.206896551724138</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H5">
-        <v>0.793103448275862</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.251</v>
+        <v>0.2665</v>
       </c>
       <c r="K5">
-        <v>-0.0226324720741198</v>
+        <v>-0.0423251072961373</v>
       </c>
       <c r="L5">
-        <v>-0.118557533720094</v>
+        <v>-0.130690669755757</v>
       </c>
       <c r="M5">
-        <v>0.029320728773666</v>
+        <v>0.0163428683982279</v>
       </c>
       <c r="N5">
-        <v>-9.01692114506764</v>
+        <v>-15.8818413869183</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1783978.1189</v>
@@ -855,19 +864,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -887,37 +896,37 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>0.000403101109933</v>
+        <v>0.020378214693288</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.916666666666667</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.235</v>
+        <v>7.27</v>
       </c>
       <c r="K6">
-        <v>-0.38151013254857</v>
+        <v>-0.188437524304986</v>
       </c>
       <c r="L6">
-        <v>-0.598074404141045</v>
+        <v>-0.335732529461778</v>
       </c>
       <c r="M6">
-        <v>-0.231292009242461</v>
+        <v>-0.0593196422915686</v>
       </c>
       <c r="N6">
-        <v>-5.27311862541216</v>
+        <v>-2.59198795467656</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1783978.1189</v>
@@ -926,16 +935,16 @@
         <v>5565177.69684</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,37 +964,37 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>0.646254269817821</v>
+        <v>0.411985692598461</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9655172413793101</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.63</v>
+        <v>2.855</v>
       </c>
       <c r="K7">
-        <v>-0.044132112447628</v>
+        <v>0.0146490641711231</v>
       </c>
       <c r="L7">
-        <v>-0.170354736836082</v>
+        <v>-0.15039998719714</v>
       </c>
       <c r="M7">
-        <v>0.145315136563804</v>
+        <v>0.195689901896096</v>
       </c>
       <c r="N7">
-        <v>-1.67802708926342</v>
+        <v>0.513102072543717</v>
       </c>
       <c r="O7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1783978.1189</v>
@@ -994,19 +1003,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>0.0032648957993758</v>
+        <v>0.954484735013535</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1038,25 +1047,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.525</v>
+        <v>0.4625</v>
       </c>
       <c r="K8">
-        <v>0.0869536141812603</v>
+        <v>-0.08409957983193279</v>
       </c>
       <c r="L8">
-        <v>0.0398089535046768</v>
+        <v>-0.149256174045151</v>
       </c>
       <c r="M8">
-        <v>0.13565295771405</v>
+        <v>-0.0042489067014921</v>
       </c>
       <c r="N8">
-        <v>16.5625931773829</v>
+        <v>-18.1836929366341</v>
       </c>
       <c r="O8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q8">
         <v>1783978.1189</v>
@@ -1065,19 +1074,374 @@
         <v>5565177.69684</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>0.915625701704011</v>
+      </c>
+      <c r="G9">
+        <v>0.32</v>
+      </c>
+      <c r="H9">
+        <v>0.58</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>3.8</v>
+      </c>
+      <c r="K9">
+        <v>-0.124658703071672</v>
+      </c>
+      <c r="L9">
+        <v>-0.82606516481841</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-3.28049218609664</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
         <v>39</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Q9">
+        <v>1783978.1189</v>
+      </c>
+      <c r="R9">
+        <v>5565177.69684</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>0.776932433031349</v>
+      </c>
+      <c r="G10">
+        <v>0.06382978723404251</v>
+      </c>
+      <c r="H10">
+        <v>0.74468085106383</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>53.6</v>
+      </c>
+      <c r="K10">
+        <v>-2.54325120514194</v>
+      </c>
+      <c r="L10">
+        <v>-8.09058861571013</v>
+      </c>
+      <c r="M10">
+        <v>4.46475718673898</v>
+      </c>
+      <c r="N10">
+        <v>-4.74487165138421</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10">
+        <v>1783978.1189</v>
+      </c>
+      <c r="R10">
+        <v>5565177.69684</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>0.809273158094529</v>
+      </c>
+      <c r="G11">
+        <v>0.1875</v>
+      </c>
+      <c r="H11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.2665</v>
+      </c>
+      <c r="K11">
+        <v>-0.0120694415339636</v>
+      </c>
+      <c r="L11">
+        <v>-0.0430731663886605</v>
+      </c>
+      <c r="M11">
+        <v>0.0066971910038611</v>
+      </c>
+      <c r="N11">
+        <v>-4.52887111968615</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11">
+        <v>1783978.1189</v>
+      </c>
+      <c r="R11">
+        <v>5565177.69684</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>0.07869441206123071</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.74</v>
+      </c>
+      <c r="K12">
+        <v>0.0465593406593407</v>
+      </c>
+      <c r="L12">
+        <v>-0.0127499513863273</v>
+      </c>
+      <c r="M12">
+        <v>0.120410436575572</v>
+      </c>
+      <c r="N12">
+        <v>1.69924600946499</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Q12">
+        <v>1783978.1189</v>
+      </c>
+      <c r="R12">
+        <v>5565177.69684</v>
+      </c>
+      <c r="S12" t="s">
         <v>41</v>
       </c>
-      <c r="W8" t="s">
-        <v>45</v>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>0.061885813884987</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.3925</v>
+      </c>
+      <c r="K13">
+        <v>0.0146883378016086</v>
+      </c>
+      <c r="L13">
+        <v>-0.0008932503853926</v>
+      </c>
+      <c r="M13">
+        <v>0.0333411571865001</v>
+      </c>
+      <c r="N13">
+        <v>3.74225166919964</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1783978.1189</v>
+      </c>
+      <c r="R13">
+        <v>5565177.69684</v>
+      </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/trend_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Waipu</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -109,21 +112,21 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Tura_1c</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +615,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.959281212248467</v>
+        <v>0.6851480507473851</v>
       </c>
       <c r="G2">
-        <v>0.352941176470588</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.617647058823529</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.45</v>
+        <v>0.004</v>
       </c>
       <c r="K2">
-        <v>-0.849418604651163</v>
+        <v>-0.0002319330587485</v>
       </c>
       <c r="L2">
-        <v>-2.03443462123105</v>
+        <v>-0.0033511030308536</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0008078991320845</v>
       </c>
       <c r="N2">
-        <v>-24.6208291203236</v>
+        <v>-5.79832646871327</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>1783978.1189</v>
@@ -651,19 +657,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -680,40 +686,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.747911584449549</v>
+        <v>0.959281212248467</v>
       </c>
       <c r="G3">
-        <v>0.08823529411764711</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="H3">
-        <v>0.764705882352941</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>53.6</v>
+        <v>3.45</v>
       </c>
       <c r="K3">
-        <v>-4.45426829268293</v>
+        <v>-0.849418604651163</v>
       </c>
       <c r="L3">
-        <v>-29.7624585761266</v>
+        <v>-2.03443462123105</v>
       </c>
       <c r="M3">
-        <v>9.824606458799639</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-8.310202038587549</v>
+        <v>-24.6208291203236</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1783978.1189</v>
@@ -722,19 +728,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -754,37 +760,37 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>0.272828054203259</v>
+        <v>0.747911584449549</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H4">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.329167231442677</v>
+        <v>53.6</v>
       </c>
       <c r="K4">
-        <v>0.0366246655364163</v>
+        <v>-4.45426829268293</v>
       </c>
       <c r="L4">
-        <v>-0.0516707413197829</v>
+        <v>-29.7624585761266</v>
       </c>
       <c r="M4">
-        <v>0.103999827987838</v>
+        <v>9.824606458799639</v>
       </c>
       <c r="N4">
-        <v>11.1264615787839</v>
+        <v>-8.310202038587549</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>1783978.1189</v>
@@ -793,19 +799,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,37 +831,37 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.8610413103157</v>
+        <v>0.272828054203259</v>
       </c>
       <c r="G5">
-        <v>0.147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.823529411764706</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2665</v>
+        <v>0.329167231442677</v>
       </c>
       <c r="K5">
-        <v>-0.0423251072961373</v>
+        <v>0.0366246655364163</v>
       </c>
       <c r="L5">
-        <v>-0.130690669755757</v>
+        <v>-0.0516707413197829</v>
       </c>
       <c r="M5">
-        <v>0.0163428683982279</v>
+        <v>0.103999827987838</v>
       </c>
       <c r="N5">
-        <v>-15.8818413869183</v>
+        <v>11.1264615787839</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1783978.1189</v>
@@ -864,19 +870,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -896,37 +902,37 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>0.020378214693288</v>
+        <v>0.8610413103157</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H6">
-        <v>0.9090909090909089</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.27</v>
+        <v>0.2665</v>
       </c>
       <c r="K6">
-        <v>-0.188437524304986</v>
+        <v>-0.0423251072961373</v>
       </c>
       <c r="L6">
-        <v>-0.335732529461778</v>
+        <v>-0.130690669755757</v>
       </c>
       <c r="M6">
-        <v>-0.0593196422915686</v>
+        <v>0.0163428683982279</v>
       </c>
       <c r="N6">
-        <v>-2.59198795467656</v>
+        <v>-15.8818413869183</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q6">
         <v>1783978.1189</v>
@@ -935,16 +941,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -964,34 +973,34 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>0.411985692598461</v>
+        <v>0.020378214693288</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.911764705882353</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.855</v>
+        <v>7.27</v>
       </c>
       <c r="K7">
-        <v>0.0146490641711231</v>
+        <v>-0.188437524304986</v>
       </c>
       <c r="L7">
-        <v>-0.15039998719714</v>
+        <v>-0.335732529461778</v>
       </c>
       <c r="M7">
-        <v>0.195689901896096</v>
+        <v>-0.0593196422915686</v>
       </c>
       <c r="N7">
-        <v>0.513102072543717</v>
+        <v>-2.59198795467656</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
         <v>38</v>
@@ -1003,19 +1012,16 @@
         <v>5565177.69684</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1035,37 +1041,37 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>0.954484735013535</v>
+        <v>0.411985692598461</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4625</v>
+        <v>2.855</v>
       </c>
       <c r="K8">
-        <v>-0.08409957983193279</v>
+        <v>0.0146490641711231</v>
       </c>
       <c r="L8">
-        <v>-0.149256174045151</v>
+        <v>-0.15039998719714</v>
       </c>
       <c r="M8">
-        <v>-0.0042489067014921</v>
+        <v>0.195689901896096</v>
       </c>
       <c r="N8">
-        <v>-18.1836929366341</v>
+        <v>0.513102072543717</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1783978.1189</v>
@@ -1074,19 +1080,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1094,10 +1100,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1106,37 +1112,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.915625701704011</v>
+        <v>0.954484735013535</v>
       </c>
       <c r="G9">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.8</v>
+        <v>0.4625</v>
       </c>
       <c r="K9">
-        <v>-0.124658703071672</v>
+        <v>-0.08409957983193279</v>
       </c>
       <c r="L9">
-        <v>-0.82606516481841</v>
+        <v>-0.149256174045151</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-0.0042489067014921</v>
       </c>
       <c r="N9">
-        <v>-3.28049218609664</v>
+        <v>-18.1836929366341</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q9">
         <v>1783978.1189</v>
@@ -1145,19 +1151,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1177,37 +1183,37 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>0.776932433031349</v>
+        <v>0.915625701704011</v>
       </c>
       <c r="G10">
-        <v>0.06382978723404251</v>
+        <v>0.32</v>
       </c>
       <c r="H10">
-        <v>0.74468085106383</v>
+        <v>0.58</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>53.6</v>
+        <v>3.8</v>
       </c>
       <c r="K10">
-        <v>-2.54325120514194</v>
+        <v>-0.124658703071672</v>
       </c>
       <c r="L10">
-        <v>-8.09058861571013</v>
+        <v>-0.82606516481841</v>
       </c>
       <c r="M10">
-        <v>4.46475718673898</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-4.74487165138421</v>
+        <v>-3.28049218609664</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1783978.1189</v>
@@ -1216,19 +1222,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1236,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1248,34 +1254,34 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>0.809273158094529</v>
+        <v>0.776932433031349</v>
       </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.06382978723404251</v>
       </c>
       <c r="H11">
-        <v>0.791666666666667</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.2665</v>
+        <v>53.6</v>
       </c>
       <c r="K11">
-        <v>-0.0120694415339636</v>
+        <v>-2.54325120514194</v>
       </c>
       <c r="L11">
-        <v>-0.0430731663886605</v>
+        <v>-8.09058861571013</v>
       </c>
       <c r="M11">
-        <v>0.0066971910038611</v>
+        <v>4.46475718673898</v>
       </c>
       <c r="N11">
-        <v>-4.52887111968615</v>
+        <v>-4.74487165138421</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
         <v>35</v>
@@ -1287,19 +1293,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1307,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1319,37 +1325,37 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>0.07869441206123071</v>
+        <v>0.809273158094529</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="H12">
-        <v>0.9</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2.74</v>
+        <v>0.2665</v>
       </c>
       <c r="K12">
-        <v>0.0465593406593407</v>
+        <v>-0.0120694415339636</v>
       </c>
       <c r="L12">
-        <v>-0.0127499513863273</v>
+        <v>-0.0430731663886605</v>
       </c>
       <c r="M12">
-        <v>0.120410436575572</v>
+        <v>0.0066971910038611</v>
       </c>
       <c r="N12">
-        <v>1.69924600946499</v>
+        <v>-4.52887111968615</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q12">
         <v>1783978.1189</v>
@@ -1358,19 +1364,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1390,37 +1396,37 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.061885813884987</v>
+        <v>0.07869441206123071</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3925</v>
+        <v>2.74</v>
       </c>
       <c r="K13">
-        <v>0.0146883378016086</v>
+        <v>0.0465593406593407</v>
       </c>
       <c r="L13">
-        <v>-0.0008932503853926</v>
+        <v>-0.0127499513863273</v>
       </c>
       <c r="M13">
-        <v>0.0333411571865001</v>
+        <v>0.120410436575572</v>
       </c>
       <c r="N13">
-        <v>3.74225166919964</v>
+        <v>1.69924600946499</v>
       </c>
       <c r="O13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q13">
         <v>1783978.1189</v>
@@ -1429,19 +1435,90 @@
         <v>5565177.69684</v>
       </c>
       <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>0.061885813884987</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.3925</v>
+      </c>
+      <c r="K14">
+        <v>0.0146883378016086</v>
+      </c>
+      <c r="L14">
+        <v>-0.0008932503853926</v>
+      </c>
+      <c r="M14">
+        <v>0.0333411571865001</v>
+      </c>
+      <c r="N14">
+        <v>3.74225166919964</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
         <v>41</v>
       </c>
-      <c r="T13" t="s">
+      <c r="Q14">
+        <v>1783978.1189</v>
+      </c>
+      <c r="R14">
+        <v>5565177.69684</v>
+      </c>
+      <c r="S14" t="s">
         <v>42</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T14" t="s">
         <v>43</v>
       </c>
-      <c r="V13" t="s">
+      <c r="U14" t="s">
         <v>44</v>
       </c>
-      <c r="W13" t="s">
-        <v>48</v>
+      <c r="V14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
